--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67721497473369</v>
+        <v>4.979053</v>
       </c>
       <c r="H2">
-        <v>4.67721497473369</v>
+        <v>14.937159</v>
       </c>
       <c r="I2">
-        <v>0.05156565989940071</v>
+        <v>0.0472442256101348</v>
       </c>
       <c r="J2">
-        <v>0.05156565989940071</v>
+        <v>0.05613577143209333</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.03198372870365</v>
+        <v>0.041581</v>
       </c>
       <c r="N2">
-        <v>4.03198372870365</v>
+        <v>0.124743</v>
       </c>
       <c r="O2">
-        <v>0.348288876693264</v>
+        <v>0.002567303846182066</v>
       </c>
       <c r="P2">
-        <v>0.348288876693264</v>
+        <v>0.002643553206088393</v>
       </c>
       <c r="Q2">
-        <v>18.85845467377529</v>
+        <v>0.207034002793</v>
       </c>
       <c r="R2">
-        <v>18.85845467377529</v>
+        <v>1.863306025137</v>
       </c>
       <c r="S2">
-        <v>0.01795974576230916</v>
+        <v>0.0001212902821187923</v>
       </c>
       <c r="T2">
-        <v>0.01795974576230916</v>
+        <v>0.0001483978985455556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67721497473369</v>
+        <v>4.979053</v>
       </c>
       <c r="H3">
-        <v>4.67721497473369</v>
+        <v>14.937159</v>
       </c>
       <c r="I3">
-        <v>0.05156565989940071</v>
+        <v>0.0472442256101348</v>
       </c>
       <c r="J3">
-        <v>0.05156565989940071</v>
+        <v>0.05613577143209333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.99952553799018</v>
+        <v>4.263156333333334</v>
       </c>
       <c r="N3">
-        <v>1.99952553799018</v>
+        <v>12.789469</v>
       </c>
       <c r="O3">
-        <v>0.1727220520728645</v>
+        <v>0.2632167973700031</v>
       </c>
       <c r="P3">
-        <v>0.1727220520728645</v>
+        <v>0.2710343809201167</v>
       </c>
       <c r="Q3">
-        <v>9.352210788650108</v>
+        <v>21.22648133095234</v>
       </c>
       <c r="R3">
-        <v>9.352210788650108</v>
+        <v>191.038331978571</v>
       </c>
       <c r="S3">
-        <v>0.008906526594315909</v>
+        <v>0.01243547375932556</v>
       </c>
       <c r="T3">
-        <v>0.008906526594315909</v>
+        <v>0.01521472405757059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67721497473369</v>
+        <v>4.979053</v>
       </c>
       <c r="H4">
-        <v>4.67721497473369</v>
+        <v>14.937159</v>
       </c>
       <c r="I4">
-        <v>0.05156565989940071</v>
+        <v>0.0472442256101348</v>
       </c>
       <c r="J4">
-        <v>0.05156565989940071</v>
+        <v>0.05613577143209333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.23612005988802</v>
+        <v>2.354591</v>
       </c>
       <c r="N4">
-        <v>4.23612005988802</v>
+        <v>7.063772999999999</v>
       </c>
       <c r="O4">
-        <v>0.3659224829437902</v>
+        <v>0.1453777093019811</v>
       </c>
       <c r="P4">
-        <v>0.3659224829437902</v>
+        <v>0.1496954519390316</v>
       </c>
       <c r="Q4">
-        <v>19.81324417887803</v>
+        <v>11.723633382323</v>
       </c>
       <c r="R4">
-        <v>19.81324417887803</v>
+        <v>105.512700440907</v>
       </c>
       <c r="S4">
-        <v>0.01886903430502374</v>
+        <v>0.006868257296947388</v>
       </c>
       <c r="T4">
-        <v>0.01886903430502374</v>
+        <v>0.008403269674473393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67721497473369</v>
+        <v>4.979053</v>
       </c>
       <c r="H5">
-        <v>4.67721497473369</v>
+        <v>14.937159</v>
       </c>
       <c r="I5">
-        <v>0.05156565989940071</v>
+        <v>0.0472442256101348</v>
       </c>
       <c r="J5">
-        <v>0.05156565989940071</v>
+        <v>0.05613577143209333</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.30892105591743</v>
+        <v>8.13556</v>
       </c>
       <c r="N5">
-        <v>1.30892105591743</v>
+        <v>24.40668</v>
       </c>
       <c r="O5">
-        <v>0.1130665882900814</v>
+        <v>0.5023076520248423</v>
       </c>
       <c r="P5">
-        <v>0.1130665882900814</v>
+        <v>0.517226274532226</v>
       </c>
       <c r="Q5">
-        <v>6.122105163481238</v>
+        <v>40.50738442468</v>
       </c>
       <c r="R5">
-        <v>6.122105163481238</v>
+        <v>364.5664598221201</v>
       </c>
       <c r="S5">
-        <v>0.005830353237751898</v>
+        <v>0.02373113603795873</v>
       </c>
       <c r="T5">
-        <v>0.005830353237751898</v>
+        <v>0.0290348959258142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.6304791787215</v>
+        <v>4.979053</v>
       </c>
       <c r="H6">
-        <v>38.6304791787215</v>
+        <v>14.937159</v>
       </c>
       <c r="I6">
-        <v>0.4258957866682733</v>
+        <v>0.0472442256101348</v>
       </c>
       <c r="J6">
-        <v>0.4258957866682733</v>
+        <v>0.05613577143209333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.03198372870365</v>
+        <v>1.4014805</v>
       </c>
       <c r="N6">
-        <v>4.03198372870365</v>
+        <v>2.802961</v>
       </c>
       <c r="O6">
-        <v>0.348288876693264</v>
+        <v>0.08653053745699152</v>
       </c>
       <c r="P6">
-        <v>0.348288876693264</v>
+        <v>0.05940033940253744</v>
       </c>
       <c r="Q6">
-        <v>155.7574634806302</v>
+        <v>6.9780456879665</v>
       </c>
       <c r="R6">
-        <v>155.7574634806302</v>
+        <v>41.868274127799</v>
       </c>
       <c r="S6">
-        <v>0.1483347651270869</v>
+        <v>0.004088068233784327</v>
       </c>
       <c r="T6">
-        <v>0.1483347651270869</v>
+        <v>0.003334483875689609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.6304791787215</v>
+        <v>41.18623966666667</v>
       </c>
       <c r="H7">
-        <v>38.6304791787215</v>
+        <v>123.558719</v>
       </c>
       <c r="I7">
-        <v>0.4258957866682733</v>
+        <v>0.3907996156789419</v>
       </c>
       <c r="J7">
-        <v>0.4258957866682733</v>
+        <v>0.4643496134858207</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.99952553799018</v>
+        <v>0.041581</v>
       </c>
       <c r="N7">
-        <v>1.99952553799018</v>
+        <v>0.124743</v>
       </c>
       <c r="O7">
-        <v>0.1727220520728645</v>
+        <v>0.002567303846182066</v>
       </c>
       <c r="P7">
-        <v>0.1727220520728645</v>
+        <v>0.002643553206088393</v>
       </c>
       <c r="Q7">
-        <v>77.24262966265155</v>
+        <v>1.712565031579667</v>
       </c>
       <c r="R7">
-        <v>77.24262966265155</v>
+        <v>15.413085284217</v>
       </c>
       <c r="S7">
-        <v>0.07356159424253109</v>
+        <v>0.001003301356419021</v>
       </c>
       <c r="T7">
-        <v>0.07356159424253109</v>
+        <v>0.001227532909476347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.6304791787215</v>
+        <v>41.18623966666667</v>
       </c>
       <c r="H8">
-        <v>38.6304791787215</v>
+        <v>123.558719</v>
       </c>
       <c r="I8">
-        <v>0.4258957866682733</v>
+        <v>0.3907996156789419</v>
       </c>
       <c r="J8">
-        <v>0.4258957866682733</v>
+        <v>0.4643496134858207</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.23612005988802</v>
+        <v>4.263156333333334</v>
       </c>
       <c r="N8">
-        <v>4.23612005988802</v>
+        <v>12.789469</v>
       </c>
       <c r="O8">
-        <v>0.3659224829437902</v>
+        <v>0.2632167973700031</v>
       </c>
       <c r="P8">
-        <v>0.3659224829437902</v>
+        <v>0.2710343809201167</v>
       </c>
       <c r="Q8">
-        <v>163.6433477720686</v>
+        <v>175.5833784811346</v>
       </c>
       <c r="R8">
-        <v>163.6433477720686</v>
+        <v>1580.250406330211</v>
       </c>
       <c r="S8">
-        <v>0.1558448437329533</v>
+        <v>0.1028650232524392</v>
       </c>
       <c r="T8">
-        <v>0.1558448437329533</v>
+        <v>0.1258547100216248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.6304791787215</v>
+        <v>41.18623966666667</v>
       </c>
       <c r="H9">
-        <v>38.6304791787215</v>
+        <v>123.558719</v>
       </c>
       <c r="I9">
-        <v>0.4258957866682733</v>
+        <v>0.3907996156789419</v>
       </c>
       <c r="J9">
-        <v>0.4258957866682733</v>
+        <v>0.4643496134858207</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.30892105591743</v>
+        <v>2.354591</v>
       </c>
       <c r="N9">
-        <v>1.30892105591743</v>
+        <v>7.063772999999999</v>
       </c>
       <c r="O9">
-        <v>0.1130665882900814</v>
+        <v>0.1453777093019811</v>
       </c>
       <c r="P9">
-        <v>0.1130665882900814</v>
+        <v>0.1496954519390316</v>
       </c>
       <c r="Q9">
-        <v>50.56424759720844</v>
+        <v>96.97674924297631</v>
       </c>
       <c r="R9">
-        <v>50.56424759720844</v>
+        <v>872.7907431867869</v>
       </c>
       <c r="S9">
-        <v>0.04815458356570198</v>
+        <v>0.05681355292349915</v>
       </c>
       <c r="T9">
-        <v>0.04815458356570198</v>
+        <v>0.06951102524847458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.2738569208526</v>
+        <v>41.18623966666667</v>
       </c>
       <c r="H10">
-        <v>2.2738569208526</v>
+        <v>123.558719</v>
       </c>
       <c r="I10">
-        <v>0.02506896374744028</v>
+        <v>0.3907996156789419</v>
       </c>
       <c r="J10">
-        <v>0.02506896374744028</v>
+        <v>0.4643496134858207</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.03198372870365</v>
+        <v>8.13556</v>
       </c>
       <c r="N10">
-        <v>4.03198372870365</v>
+        <v>24.40668</v>
       </c>
       <c r="O10">
-        <v>0.348288876693264</v>
+        <v>0.5023076520248423</v>
       </c>
       <c r="P10">
-        <v>0.348288876693264</v>
+        <v>0.517226274532226</v>
       </c>
       <c r="Q10">
-        <v>9.168154106277866</v>
+        <v>335.0731239825466</v>
       </c>
       <c r="R10">
-        <v>9.168154106277866</v>
+        <v>3015.65811584292</v>
       </c>
       <c r="S10">
-        <v>0.008731241223460131</v>
+        <v>0.1963016373639001</v>
       </c>
       <c r="T10">
-        <v>0.008731241223460131</v>
+        <v>0.2401738206637501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.2738569208526</v>
+        <v>41.18623966666667</v>
       </c>
       <c r="H11">
-        <v>2.2738569208526</v>
+        <v>123.558719</v>
       </c>
       <c r="I11">
-        <v>0.02506896374744028</v>
+        <v>0.3907996156789419</v>
       </c>
       <c r="J11">
-        <v>0.02506896374744028</v>
+        <v>0.4643496134858207</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.99952553799018</v>
+        <v>1.4014805</v>
       </c>
       <c r="N11">
-        <v>1.99952553799018</v>
+        <v>2.802961</v>
       </c>
       <c r="O11">
-        <v>0.1727220520728645</v>
+        <v>0.08653053745699152</v>
       </c>
       <c r="P11">
-        <v>0.1727220520728645</v>
+        <v>0.05940033940253744</v>
       </c>
       <c r="Q11">
-        <v>4.546634982980489</v>
+        <v>57.72171176115983</v>
       </c>
       <c r="R11">
-        <v>4.546634982980489</v>
+        <v>346.330270566959</v>
       </c>
       <c r="S11">
-        <v>0.004329962861798131</v>
+        <v>0.03381610078268457</v>
       </c>
       <c r="T11">
-        <v>0.004329962861798131</v>
+        <v>0.02758252464249482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.2738569208526</v>
+        <v>5.730062333333334</v>
       </c>
       <c r="H12">
-        <v>2.2738569208526</v>
+        <v>17.190187</v>
       </c>
       <c r="I12">
-        <v>0.02506896374744028</v>
+        <v>0.05437025025363968</v>
       </c>
       <c r="J12">
-        <v>0.02506896374744028</v>
+        <v>0.06460294145004028</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>4.23612005988802</v>
+        <v>0.041581</v>
       </c>
       <c r="N12">
-        <v>4.23612005988802</v>
+        <v>0.124743</v>
       </c>
       <c r="O12">
-        <v>0.3659224829437902</v>
+        <v>0.002567303846182066</v>
       </c>
       <c r="P12">
-        <v>0.3659224829437902</v>
+        <v>0.002643553206088393</v>
       </c>
       <c r="Q12">
-        <v>9.632330915738905</v>
+        <v>0.2382617218823334</v>
       </c>
       <c r="R12">
-        <v>9.632330915738905</v>
+        <v>2.144355496941</v>
       </c>
       <c r="S12">
-        <v>0.009173297459291208</v>
+        <v>0.0001395849525940506</v>
       </c>
       <c r="T12">
-        <v>0.009173297459291208</v>
+        <v>0.0001707813129929947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.2738569208526</v>
+        <v>5.730062333333334</v>
       </c>
       <c r="H13">
-        <v>2.2738569208526</v>
+        <v>17.190187</v>
       </c>
       <c r="I13">
-        <v>0.02506896374744028</v>
+        <v>0.05437025025363968</v>
       </c>
       <c r="J13">
-        <v>0.02506896374744028</v>
+        <v>0.06460294145004028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.30892105591743</v>
+        <v>4.263156333333334</v>
       </c>
       <c r="N13">
-        <v>1.30892105591743</v>
+        <v>12.789469</v>
       </c>
       <c r="O13">
-        <v>0.1130665882900814</v>
+        <v>0.2632167973700031</v>
       </c>
       <c r="P13">
-        <v>0.1130665882900814</v>
+        <v>0.2710343809201167</v>
       </c>
       <c r="Q13">
-        <v>2.976299201847541</v>
+        <v>24.42815152674478</v>
       </c>
       <c r="R13">
-        <v>2.976299201847541</v>
+        <v>219.853363740703</v>
       </c>
       <c r="S13">
-        <v>0.002834462202890805</v>
+        <v>0.01431116314396864</v>
       </c>
       <c r="T13">
-        <v>0.002834462202890805</v>
+        <v>0.01750961824153021</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.91328589154367</v>
+        <v>5.730062333333334</v>
       </c>
       <c r="H14">
-        <v>0.91328589154367</v>
+        <v>17.190187</v>
       </c>
       <c r="I14">
-        <v>0.01006885292394397</v>
+        <v>0.05437025025363968</v>
       </c>
       <c r="J14">
-        <v>0.01006885292394397</v>
+        <v>0.06460294145004028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.03198372870365</v>
+        <v>2.354591</v>
       </c>
       <c r="N14">
-        <v>4.03198372870365</v>
+        <v>7.063772999999999</v>
       </c>
       <c r="O14">
-        <v>0.348288876693264</v>
+        <v>0.1453777093019811</v>
       </c>
       <c r="P14">
-        <v>0.348288876693264</v>
+        <v>0.1496954519390316</v>
       </c>
       <c r="Q14">
-        <v>3.682353854358684</v>
+        <v>13.49195319950567</v>
       </c>
       <c r="R14">
-        <v>3.682353854358684</v>
+        <v>121.427578795551</v>
       </c>
       <c r="S14">
-        <v>0.003506869474470132</v>
+        <v>0.007904222436049593</v>
       </c>
       <c r="T14">
-        <v>0.003506869474470132</v>
+        <v>0.009670766516954579</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.91328589154367</v>
+        <v>5.730062333333334</v>
       </c>
       <c r="H15">
-        <v>0.91328589154367</v>
+        <v>17.190187</v>
       </c>
       <c r="I15">
-        <v>0.01006885292394397</v>
+        <v>0.05437025025363968</v>
       </c>
       <c r="J15">
-        <v>0.01006885292394397</v>
+        <v>0.06460294145004028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.99952553799018</v>
+        <v>8.13556</v>
       </c>
       <c r="N15">
-        <v>1.99952553799018</v>
+        <v>24.40668</v>
       </c>
       <c r="O15">
-        <v>0.1727220520728645</v>
+        <v>0.5023076520248423</v>
       </c>
       <c r="P15">
-        <v>0.1727220520728645</v>
+        <v>0.517226274532226</v>
       </c>
       <c r="Q15">
-        <v>1.826138463627698</v>
+        <v>46.61726591657334</v>
       </c>
       <c r="R15">
-        <v>1.826138463627698</v>
+        <v>419.5553932491601</v>
       </c>
       <c r="S15">
-        <v>0.001739112939043464</v>
+        <v>0.02731059274490883</v>
       </c>
       <c r="T15">
-        <v>0.001739112939043464</v>
+        <v>0.03341433873002786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.91328589154367</v>
+        <v>5.730062333333334</v>
       </c>
       <c r="H16">
-        <v>0.91328589154367</v>
+        <v>17.190187</v>
       </c>
       <c r="I16">
-        <v>0.01006885292394397</v>
+        <v>0.05437025025363968</v>
       </c>
       <c r="J16">
-        <v>0.01006885292394397</v>
+        <v>0.06460294145004028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.23612005988802</v>
+        <v>1.4014805</v>
       </c>
       <c r="N16">
-        <v>4.23612005988802</v>
+        <v>2.802961</v>
       </c>
       <c r="O16">
-        <v>0.3659224829437902</v>
+        <v>0.08653053745699152</v>
       </c>
       <c r="P16">
-        <v>0.3659224829437902</v>
+        <v>0.05940033940253744</v>
       </c>
       <c r="Q16">
-        <v>3.868788685580856</v>
+        <v>8.030570623951167</v>
       </c>
       <c r="R16">
-        <v>3.868788685580856</v>
+        <v>48.183423743707</v>
       </c>
       <c r="S16">
-        <v>0.003684419662325419</v>
+        <v>0.004704686976118571</v>
       </c>
       <c r="T16">
-        <v>0.003684419662325419</v>
+        <v>0.003837436648534647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.91328589154367</v>
+        <v>3.415169666666667</v>
       </c>
       <c r="H17">
-        <v>0.91328589154367</v>
+        <v>10.245509</v>
       </c>
       <c r="I17">
-        <v>0.01006885292394397</v>
+        <v>0.03240516745431086</v>
       </c>
       <c r="J17">
-        <v>0.01006885292394397</v>
+        <v>0.03850394518994242</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.30892105591743</v>
+        <v>0.041581</v>
       </c>
       <c r="N17">
-        <v>1.30892105591743</v>
+        <v>0.124743</v>
       </c>
       <c r="O17">
-        <v>0.1130665882900814</v>
+        <v>0.002567303846182066</v>
       </c>
       <c r="P17">
-        <v>0.1130665882900814</v>
+        <v>0.002643553206088393</v>
       </c>
       <c r="Q17">
-        <v>1.195419133513832</v>
+        <v>0.1420061699096667</v>
       </c>
       <c r="R17">
-        <v>1.195419133513832</v>
+        <v>1.278055529187</v>
       </c>
       <c r="S17">
-        <v>0.001138450848104955</v>
+        <v>8.319391104162617E-05</v>
       </c>
       <c r="T17">
-        <v>0.001138450848104955</v>
+        <v>0.0001017872277539241</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.2092281786353</v>
+        <v>3.415169666666667</v>
       </c>
       <c r="H18">
-        <v>44.2092281786353</v>
+        <v>10.245509</v>
       </c>
       <c r="I18">
-        <v>0.4874007367609417</v>
+        <v>0.03240516745431086</v>
       </c>
       <c r="J18">
-        <v>0.4874007367609417</v>
+        <v>0.03850394518994242</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.03198372870365</v>
+        <v>4.263156333333334</v>
       </c>
       <c r="N18">
-        <v>4.03198372870365</v>
+        <v>12.789469</v>
       </c>
       <c r="O18">
-        <v>0.348288876693264</v>
+        <v>0.2632167973700031</v>
       </c>
       <c r="P18">
-        <v>0.348288876693264</v>
+        <v>0.2710343809201167</v>
       </c>
       <c r="Q18">
-        <v>178.2508886748044</v>
+        <v>14.55940219385789</v>
       </c>
       <c r="R18">
-        <v>178.2508886748044</v>
+        <v>131.034619744721</v>
       </c>
       <c r="S18">
-        <v>0.1697562551059376</v>
+        <v>0.008529584395562362</v>
       </c>
       <c r="T18">
-        <v>0.1697562551059376</v>
+        <v>0.01043589294753815</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.2092281786353</v>
+        <v>3.415169666666667</v>
       </c>
       <c r="H19">
-        <v>44.2092281786353</v>
+        <v>10.245509</v>
       </c>
       <c r="I19">
-        <v>0.4874007367609417</v>
+        <v>0.03240516745431086</v>
       </c>
       <c r="J19">
-        <v>0.4874007367609417</v>
+        <v>0.03850394518994242</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.99952553799018</v>
+        <v>2.354591</v>
       </c>
       <c r="N19">
-        <v>1.99952553799018</v>
+        <v>7.063772999999999</v>
       </c>
       <c r="O19">
-        <v>0.1727220520728645</v>
+        <v>0.1453777093019811</v>
       </c>
       <c r="P19">
-        <v>0.1727220520728645</v>
+        <v>0.1496954519390316</v>
       </c>
       <c r="Q19">
-        <v>88.39748075801637</v>
+        <v>8.041327760606332</v>
       </c>
       <c r="R19">
-        <v>88.39748075801637</v>
+        <v>72.371949845457</v>
       </c>
       <c r="S19">
-        <v>0.08418485543517588</v>
+        <v>0.004710989014054823</v>
       </c>
       <c r="T19">
-        <v>0.08418485543517588</v>
+        <v>0.005763865476644134</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.2092281786353</v>
+        <v>3.415169666666667</v>
       </c>
       <c r="H20">
-        <v>44.2092281786353</v>
+        <v>10.245509</v>
       </c>
       <c r="I20">
-        <v>0.4874007367609417</v>
+        <v>0.03240516745431086</v>
       </c>
       <c r="J20">
-        <v>0.4874007367609417</v>
+        <v>0.03850394518994242</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.23612005988802</v>
+        <v>8.13556</v>
       </c>
       <c r="N20">
-        <v>4.23612005988802</v>
+        <v>24.40668</v>
       </c>
       <c r="O20">
-        <v>0.3659224829437902</v>
+        <v>0.5023076520248423</v>
       </c>
       <c r="P20">
-        <v>0.3659224829437902</v>
+        <v>0.517226274532226</v>
       </c>
       <c r="Q20">
-        <v>187.2755983196837</v>
+        <v>27.78431773334667</v>
       </c>
       <c r="R20">
-        <v>187.2755983196837</v>
+        <v>250.05885960012</v>
       </c>
       <c r="S20">
-        <v>0.1783508877841964</v>
+        <v>0.01627736357744672</v>
       </c>
       <c r="T20">
-        <v>0.1783508877841964</v>
+        <v>0.01991525212538694</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.2092281786353</v>
+        <v>3.415169666666667</v>
       </c>
       <c r="H21">
-        <v>44.2092281786353</v>
+        <v>10.245509</v>
       </c>
       <c r="I21">
-        <v>0.4874007367609417</v>
+        <v>0.03240516745431086</v>
       </c>
       <c r="J21">
-        <v>0.4874007367609417</v>
+        <v>0.03850394518994242</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.30892105591743</v>
+        <v>1.4014805</v>
       </c>
       <c r="N21">
-        <v>1.30892105591743</v>
+        <v>2.802961</v>
       </c>
       <c r="O21">
-        <v>0.1130665882900814</v>
+        <v>0.08653053745699152</v>
       </c>
       <c r="P21">
-        <v>0.1130665882900814</v>
+        <v>0.05940033940253744</v>
       </c>
       <c r="Q21">
-        <v>57.86638962887392</v>
+        <v>4.786293692024834</v>
       </c>
       <c r="R21">
-        <v>57.86638962887392</v>
+        <v>28.717762152149</v>
       </c>
       <c r="S21">
-        <v>0.05510873843563172</v>
+        <v>0.002804036556205328</v>
       </c>
       <c r="T21">
-        <v>0.05510873843563172</v>
+        <v>0.002287147412619279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.079138</v>
+      </c>
+      <c r="H22">
+        <v>100.158276</v>
+      </c>
+      <c r="I22">
+        <v>0.4751807410029728</v>
+      </c>
+      <c r="J22">
+        <v>0.3764077284421033</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.041581</v>
+      </c>
+      <c r="N22">
+        <v>0.124743</v>
+      </c>
+      <c r="O22">
+        <v>0.002567303846182066</v>
+      </c>
+      <c r="P22">
+        <v>0.002643553206088393</v>
+      </c>
+      <c r="Q22">
+        <v>2.082340637178</v>
+      </c>
+      <c r="R22">
+        <v>12.494043823068</v>
+      </c>
+      <c r="S22">
+        <v>0.001219933344008576</v>
+      </c>
+      <c r="T22">
+        <v>0.0009950538573195715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.079138</v>
+      </c>
+      <c r="H23">
+        <v>100.158276</v>
+      </c>
+      <c r="I23">
+        <v>0.4751807410029728</v>
+      </c>
+      <c r="J23">
+        <v>0.3764077284421033</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.263156333333334</v>
+      </c>
+      <c r="N23">
+        <v>12.789469</v>
+      </c>
+      <c r="O23">
+        <v>0.2632167973700031</v>
+      </c>
+      <c r="P23">
+        <v>0.2710343809201167</v>
+      </c>
+      <c r="Q23">
+        <v>213.495194332574</v>
+      </c>
+      <c r="R23">
+        <v>1280.971165995444</v>
+      </c>
+      <c r="S23">
+        <v>0.1250755528187074</v>
+      </c>
+      <c r="T23">
+        <v>0.1020194356518529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.079138</v>
+      </c>
+      <c r="H24">
+        <v>100.158276</v>
+      </c>
+      <c r="I24">
+        <v>0.4751807410029728</v>
+      </c>
+      <c r="J24">
+        <v>0.3764077284421033</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.354591</v>
+      </c>
+      <c r="N24">
+        <v>7.063772999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1453777093019811</v>
+      </c>
+      <c r="P24">
+        <v>0.1496954519390316</v>
+      </c>
+      <c r="Q24">
+        <v>117.915887622558</v>
+      </c>
+      <c r="R24">
+        <v>707.4953257353479</v>
+      </c>
+      <c r="S24">
+        <v>0.06908068763143015</v>
+      </c>
+      <c r="T24">
+        <v>0.05634652502248495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.079138</v>
+      </c>
+      <c r="H25">
+        <v>100.158276</v>
+      </c>
+      <c r="I25">
+        <v>0.4751807410029728</v>
+      </c>
+      <c r="J25">
+        <v>0.3764077284421033</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.13556</v>
+      </c>
+      <c r="N25">
+        <v>24.40668</v>
+      </c>
+      <c r="O25">
+        <v>0.5023076520248423</v>
+      </c>
+      <c r="P25">
+        <v>0.517226274532226</v>
+      </c>
+      <c r="Q25">
+        <v>407.42183194728</v>
+      </c>
+      <c r="R25">
+        <v>2444.53099168368</v>
+      </c>
+      <c r="S25">
+        <v>0.2386869223006279</v>
+      </c>
+      <c r="T25">
+        <v>0.1946879670872469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.079138</v>
+      </c>
+      <c r="H26">
+        <v>100.158276</v>
+      </c>
+      <c r="I26">
+        <v>0.4751807410029728</v>
+      </c>
+      <c r="J26">
+        <v>0.3764077284421033</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.4014805</v>
+      </c>
+      <c r="N26">
+        <v>2.802961</v>
+      </c>
+      <c r="O26">
+        <v>0.08653053745699152</v>
+      </c>
+      <c r="P26">
+        <v>0.05940033940253744</v>
+      </c>
+      <c r="Q26">
+        <v>70.18493536380899</v>
+      </c>
+      <c r="R26">
+        <v>280.739741455236</v>
+      </c>
+      <c r="S26">
+        <v>0.04111764490819872</v>
+      </c>
+      <c r="T26">
+        <v>0.02235874682319908</v>
       </c>
     </row>
   </sheetData>
